--- a/datasets/Holdings_IXIC.xlsx
+++ b/datasets/Holdings_IXIC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suyan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suyan\Documents\GitHub\Stock-Market-Analysis-ChatBot\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD41617F-D741-48EF-9D66-DCA0085DB7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E2FF99-2841-465A-9559-2F597E582147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="2033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="2032">
   <si>
     <t>Ticker</t>
   </si>
@@ -2342,9 +2342,6 @@
   </si>
   <si>
     <t>HUAZHU GROUP LTD ADR</t>
-  </si>
-  <si>
-    <t>FUTURES CASH COLLATERAL</t>
   </si>
   <si>
     <t>CRSP</t>
@@ -6495,10 +6492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1021"/>
+  <dimension ref="A1:E1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A367" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A390" sqref="A390:XFD390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -6514,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C1" t="s">
         <v>2030</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2031</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2032</v>
       </c>
       <c r="E1" s="2"/>
     </row>
@@ -10784,8 +10781,11 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>774</v>
+      </c>
       <c r="B390" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D390" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10793,10 +10793,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B391" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D391" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10804,10 +10804,10 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B392" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D392" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10815,10 +10815,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B393" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D393" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10826,10 +10826,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B394" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D394" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10837,10 +10837,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B395" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D395" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10848,10 +10848,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B396" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D396" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10859,10 +10859,10 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B397" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D397" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10870,10 +10870,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B398" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D398" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10881,10 +10881,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B399" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D399" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10892,10 +10892,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B400" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D400" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10903,10 +10903,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B401" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D401" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10914,10 +10914,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B402" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D402" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10925,10 +10925,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B403" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D403" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10936,10 +10936,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B404" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D404" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10947,10 +10947,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B405" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D405" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10958,10 +10958,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B406" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D406" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10969,10 +10969,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B407" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D407" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10980,10 +10980,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B408" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D408" s="3">
         <v>2.0000000000000001E-4</v>
@@ -10991,10 +10991,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B409" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D409" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11002,10 +11002,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B410" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D410" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11013,10 +11013,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B411" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D411" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11024,10 +11024,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B412" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D412" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11035,10 +11035,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B413" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D413" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11046,10 +11046,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B414" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D414" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11057,10 +11057,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B415" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D415" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11068,10 +11068,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B416" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D416" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11079,10 +11079,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B417" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D417" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11090,10 +11090,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B418" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D418" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11101,10 +11101,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B419" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D419" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11112,10 +11112,10 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B420" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D420" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11123,10 +11123,10 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B421" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D421" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11134,10 +11134,10 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B422" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D422" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11145,10 +11145,10 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B423" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D423" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11156,10 +11156,10 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B424" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D424" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11167,10 +11167,10 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B425" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D425" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11178,10 +11178,10 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B426" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D426" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11189,10 +11189,10 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B427" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D427" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11200,10 +11200,10 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B428" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D428" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11211,10 +11211,10 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B429" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D429" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11222,10 +11222,10 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B430" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D430" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11233,10 +11233,10 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B431" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D431" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11244,10 +11244,10 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B432" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D432" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11255,10 +11255,10 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B433" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D433" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11266,10 +11266,10 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B434" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D434" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11277,10 +11277,10 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B435" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D435" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11288,10 +11288,10 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B436" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D436" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11299,10 +11299,10 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B437" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D437" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11310,10 +11310,10 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B438" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D438" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11321,10 +11321,10 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B439" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D439" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11332,10 +11332,10 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B440" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D440" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11343,10 +11343,10 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B441" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D441" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11354,10 +11354,10 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B442" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D442" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11365,10 +11365,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B443" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D443" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11376,10 +11376,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B444" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D444" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11387,10 +11387,10 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B445" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D445" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11398,10 +11398,10 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B446" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D446" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11409,10 +11409,10 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B447" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D447" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11420,10 +11420,10 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B448" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D448" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11431,10 +11431,10 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B449" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D449" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11442,10 +11442,10 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B450" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D450" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11453,10 +11453,10 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B451" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D451" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11464,10 +11464,10 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B452" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D452" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11475,10 +11475,10 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B453" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D453" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11486,10 +11486,10 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B454" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D454" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11497,10 +11497,10 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B455" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D455" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11508,10 +11508,10 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B456" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D456" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11519,10 +11519,10 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B457" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D457" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11530,10 +11530,10 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B458" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D458" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11541,10 +11541,10 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B459" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D459" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11552,10 +11552,10 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B460" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D460" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11563,10 +11563,10 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B461" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D461" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11574,10 +11574,10 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B462" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D462" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11585,10 +11585,10 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B463" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D463" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11596,10 +11596,10 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B464" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D464" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11607,9 +11607,6 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>923</v>
-      </c>
-      <c r="B465" t="s">
         <v>924</v>
       </c>
       <c r="D465" s="3">
@@ -11620,16 +11617,19 @@
       <c r="A466" t="s">
         <v>925</v>
       </c>
+      <c r="B466" t="s">
+        <v>926</v>
+      </c>
       <c r="D466" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B467" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D467" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11637,10 +11637,10 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B468" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D468" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11648,10 +11648,10 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B469" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D469" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11659,10 +11659,10 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B470" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D470" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11670,10 +11670,10 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B471" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D471" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11681,10 +11681,10 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B472" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D472" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11692,10 +11692,10 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B473" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D473" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11703,10 +11703,10 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B474" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D474" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11714,10 +11714,10 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B475" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D475" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11725,10 +11725,10 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B476" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D476" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11736,10 +11736,10 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B477" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D477" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11747,10 +11747,10 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B478" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D478" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11758,10 +11758,10 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B479" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D479" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11769,10 +11769,10 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B480" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D480" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11780,10 +11780,10 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B481" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D481" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11791,10 +11791,10 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B482" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D482" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11802,10 +11802,10 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B483" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D483" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11813,10 +11813,10 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B484" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D484" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11824,10 +11824,10 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B485" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D485" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11835,10 +11835,10 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B486" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D486" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11846,10 +11846,10 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B487" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D487" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11857,10 +11857,10 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B488" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D488" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11868,10 +11868,10 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B489" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D489" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11879,10 +11879,10 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B490" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D490" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11890,10 +11890,10 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B491" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D491" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11901,10 +11901,10 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B492" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D492" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11912,10 +11912,10 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B493" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D493" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11923,10 +11923,10 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B494" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D494" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11934,10 +11934,10 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B495" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D495" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11945,10 +11945,10 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B496" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D496" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11956,10 +11956,10 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B497" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D497" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11967,10 +11967,10 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B498" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D498" s="3">
         <v>2.0000000000000001E-4</v>
@@ -11978,9 +11978,6 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>990</v>
-      </c>
-      <c r="B499" t="s">
         <v>991</v>
       </c>
       <c r="D499" s="3">
@@ -11991,16 +11988,19 @@
       <c r="A500" t="s">
         <v>992</v>
       </c>
+      <c r="B500" t="s">
+        <v>993</v>
+      </c>
       <c r="D500" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B501" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D501" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12008,10 +12008,10 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B502" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D502" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12019,10 +12019,10 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B503" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D503" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12030,10 +12030,10 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B504" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D504" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12041,10 +12041,10 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B505" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D505" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12052,10 +12052,10 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B506" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D506" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12063,10 +12063,10 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B507" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D507" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12074,10 +12074,10 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B508" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D508" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12085,10 +12085,10 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B509" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D509" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12096,10 +12096,10 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B510" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D510" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12107,10 +12107,10 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B511" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D511" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12118,10 +12118,10 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B512" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D512" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12129,10 +12129,10 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B513" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D513" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12140,10 +12140,10 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B514" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D514" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12151,10 +12151,10 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B515" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D515" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12162,10 +12162,10 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B516" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D516" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12173,10 +12173,10 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B517" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D517" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12184,10 +12184,10 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B518" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D518" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12195,10 +12195,10 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B519" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D519" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12206,10 +12206,10 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B520" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D520" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12217,10 +12217,10 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B521" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D521" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12228,10 +12228,10 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B522" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D522" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12239,10 +12239,10 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B523" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D523" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12250,10 +12250,10 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B524" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D524" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12261,10 +12261,10 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B525" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D525" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12272,10 +12272,10 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B526" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D526" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12283,10 +12283,10 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B527" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D527" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12294,10 +12294,10 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B528" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D528" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12305,10 +12305,10 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B529" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D529" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12316,10 +12316,10 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B530" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D530" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12327,10 +12327,10 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B531" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D531" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12338,10 +12338,10 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B532" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D532" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12349,10 +12349,10 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B533" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D533" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12360,10 +12360,10 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B534" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D534" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12371,10 +12371,10 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B535" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D535" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12382,10 +12382,10 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B536" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D536" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12393,9 +12393,6 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B537" t="s">
         <v>1066</v>
       </c>
       <c r="D537" s="3">
@@ -12406,16 +12403,19 @@
       <c r="A538" t="s">
         <v>1067</v>
       </c>
+      <c r="B538" t="s">
+        <v>1068</v>
+      </c>
       <c r="D538" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B539" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D539" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12423,10 +12423,10 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B540" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D540" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12434,10 +12434,10 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B541" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D541" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12445,10 +12445,10 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B542" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D542" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12456,10 +12456,10 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B543" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D543" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12467,10 +12467,10 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B544" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D544" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12478,10 +12478,10 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B545" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D545" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12489,10 +12489,10 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B546" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D546" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12500,10 +12500,10 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B547" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D547" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12511,10 +12511,10 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B548" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D548" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12522,10 +12522,10 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B549" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D549" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12533,10 +12533,10 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B550" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D550" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12544,10 +12544,10 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B551" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D551" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12555,10 +12555,10 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B552" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D552" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12566,10 +12566,10 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B553" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D553" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12577,10 +12577,10 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B554" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D554" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12588,10 +12588,10 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B555" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D555" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12599,10 +12599,10 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B556" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D556" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12610,10 +12610,10 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B557" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D557" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12621,10 +12621,10 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B558" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D558" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12632,10 +12632,10 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B559" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D559" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12643,10 +12643,10 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B560" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D560" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12654,10 +12654,10 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B561" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D561" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12665,10 +12665,10 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B562" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D562" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12676,10 +12676,10 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B563" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D563" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12687,10 +12687,10 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B564" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D564" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12698,10 +12698,10 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B565" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D565" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12709,10 +12709,10 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B566" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D566" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12720,10 +12720,10 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B567" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D567" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12731,10 +12731,10 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B568" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D568" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12742,10 +12742,10 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B569" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D569" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12753,10 +12753,10 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B570" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D570" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12764,10 +12764,10 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B571" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D571" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12775,10 +12775,10 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B572" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D572" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12786,10 +12786,10 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B573" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D573" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12797,10 +12797,10 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B574" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D574" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12808,10 +12808,10 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B575" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D575" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12819,10 +12819,10 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B576" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D576" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12830,10 +12830,10 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B577" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D577" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12841,10 +12841,10 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B578" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D578" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12852,10 +12852,10 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B579" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D579" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12863,10 +12863,10 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B580" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D580" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12874,10 +12874,10 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B581" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D581" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12885,10 +12885,10 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B582" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D582" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12896,10 +12896,10 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B583" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D583" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12907,10 +12907,10 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B584" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D584" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12918,10 +12918,10 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B585" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D585" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12929,10 +12929,10 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B586" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D586" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12940,10 +12940,10 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B587" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D587" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12951,10 +12951,10 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B588" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D588" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12962,10 +12962,10 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B589" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D589" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12973,10 +12973,10 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B590" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D590" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12984,10 +12984,10 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B591" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D591" s="3">
         <v>2.0000000000000001E-4</v>
@@ -12995,10 +12995,10 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B592" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D592" s="3">
         <v>2.0000000000000001E-4</v>
@@ -13006,10 +13006,10 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B593" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D593" s="3">
         <v>2.0000000000000001E-4</v>
@@ -13017,10 +13017,10 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B594" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D594" s="3">
         <v>2.0000000000000001E-4</v>
@@ -13028,10 +13028,10 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B595" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D595" s="3">
         <v>2.0000000000000001E-4</v>
@@ -13039,10 +13039,10 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B596" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D596" s="3">
         <v>2.0000000000000001E-4</v>
@@ -13050,10 +13050,10 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B597" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D597" s="3">
         <v>2.0000000000000001E-4</v>
@@ -13061,10 +13061,10 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B598" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D598" s="3">
         <v>2.0000000000000001E-4</v>
@@ -13072,10 +13072,10 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B599" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D599" s="3">
         <v>2.0000000000000001E-4</v>
@@ -13083,21 +13083,21 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B600" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D600" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B601" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D601" s="3">
         <v>1E-4</v>
@@ -13105,10 +13105,10 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B602" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D602" s="3">
         <v>1E-4</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B603" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D603" s="3">
         <v>1E-4</v>
@@ -13127,10 +13127,10 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B604" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D604" s="3">
         <v>1E-4</v>
@@ -13138,10 +13138,10 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B605" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D605" s="3">
         <v>1E-4</v>
@@ -13149,10 +13149,10 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B606" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D606" s="3">
         <v>1E-4</v>
@@ -13160,10 +13160,10 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B607" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D607" s="3">
         <v>1E-4</v>
@@ -13171,10 +13171,10 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B608" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D608" s="3">
         <v>1E-4</v>
@@ -13182,10 +13182,10 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B609" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D609" s="3">
         <v>1E-4</v>
@@ -13193,10 +13193,10 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B610" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D610" s="3">
         <v>1E-4</v>
@@ -13204,10 +13204,10 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B611" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D611" s="3">
         <v>1E-4</v>
@@ -13215,10 +13215,10 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B612" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D612" s="3">
         <v>1E-4</v>
@@ -13226,10 +13226,10 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B613" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D613" s="3">
         <v>1E-4</v>
@@ -13237,10 +13237,10 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B614" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D614" s="3">
         <v>1E-4</v>
@@ -13248,10 +13248,10 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B615" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D615" s="3">
         <v>1E-4</v>
@@ -13259,10 +13259,10 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B616" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D616" s="3">
         <v>1E-4</v>
@@ -13270,10 +13270,10 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B617" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D617" s="3">
         <v>1E-4</v>
@@ -13281,10 +13281,10 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B618" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D618" s="3">
         <v>1E-4</v>
@@ -13292,10 +13292,10 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B619" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D619" s="3">
         <v>1E-4</v>
@@ -13303,10 +13303,10 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B620" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D620" s="3">
         <v>1E-4</v>
@@ -13314,10 +13314,10 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B621" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D621" s="3">
         <v>1E-4</v>
@@ -13325,10 +13325,10 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B622" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D622" s="3">
         <v>1E-4</v>
@@ -13336,10 +13336,10 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B623" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D623" s="3">
         <v>1E-4</v>
@@ -13347,10 +13347,10 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B624" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D624" s="3">
         <v>1E-4</v>
@@ -13358,10 +13358,10 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B625" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D625" s="3">
         <v>1E-4</v>
@@ -13369,10 +13369,10 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B626" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D626" s="3">
         <v>1E-4</v>
@@ -13380,10 +13380,10 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B627" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D627" s="3">
         <v>1E-4</v>
@@ -13391,10 +13391,10 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B628" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D628" s="3">
         <v>1E-4</v>
@@ -13402,10 +13402,10 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B629" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D629" s="3">
         <v>1E-4</v>
@@ -13413,10 +13413,10 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B630" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D630" s="3">
         <v>1E-4</v>
@@ -13424,10 +13424,10 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B631" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D631" s="3">
         <v>1E-4</v>
@@ -13435,10 +13435,10 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B632" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D632" s="3">
         <v>1E-4</v>
@@ -13446,10 +13446,10 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B633" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D633" s="3">
         <v>1E-4</v>
@@ -13457,10 +13457,10 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B634" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D634" s="3">
         <v>1E-4</v>
@@ -13468,10 +13468,10 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B635" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D635" s="3">
         <v>1E-4</v>
@@ -13479,10 +13479,10 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B636" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D636" s="3">
         <v>1E-4</v>
@@ -13490,10 +13490,10 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B637" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D637" s="3">
         <v>1E-4</v>
@@ -13501,10 +13501,10 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B638" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D638" s="3">
         <v>1E-4</v>
@@ -13512,10 +13512,10 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B639" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D639" s="3">
         <v>1E-4</v>
@@ -13523,10 +13523,10 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B640" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D640" s="3">
         <v>1E-4</v>
@@ -13534,10 +13534,10 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B641" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D641" s="3">
         <v>1E-4</v>
@@ -13545,10 +13545,10 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B642" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D642" s="3">
         <v>1E-4</v>
@@ -13556,10 +13556,10 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B643" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D643" s="3">
         <v>1E-4</v>
@@ -13567,10 +13567,10 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B644" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D644" s="3">
         <v>1E-4</v>
@@ -13578,10 +13578,10 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B645" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D645" s="3">
         <v>1E-4</v>
@@ -13589,10 +13589,10 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B646" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D646" s="3">
         <v>1E-4</v>
@@ -13600,10 +13600,10 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B647" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D647" s="3">
         <v>1E-4</v>
@@ -13611,10 +13611,10 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B648" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D648" s="3">
         <v>1E-4</v>
@@ -13622,10 +13622,10 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B649" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D649" s="3">
         <v>1E-4</v>
@@ -13633,10 +13633,10 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B650" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D650" s="3">
         <v>1E-4</v>
@@ -13644,10 +13644,10 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B651" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D651" s="3">
         <v>1E-4</v>
@@ -13655,10 +13655,10 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B652" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D652" s="3">
         <v>1E-4</v>
@@ -13666,10 +13666,10 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B653" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D653" s="3">
         <v>1E-4</v>
@@ -13677,10 +13677,10 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B654" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D654" s="3">
         <v>1E-4</v>
@@ -13688,10 +13688,10 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B655" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D655" s="3">
         <v>1E-4</v>
@@ -13699,10 +13699,10 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B656" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D656" s="3">
         <v>1E-4</v>
@@ -13710,10 +13710,10 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B657" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D657" s="3">
         <v>1E-4</v>
@@ -13721,10 +13721,10 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B658" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D658" s="3">
         <v>1E-4</v>
@@ -13732,10 +13732,10 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B659" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D659" s="3">
         <v>1E-4</v>
@@ -13743,10 +13743,10 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B660" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D660" s="3">
         <v>1E-4</v>
@@ -13754,10 +13754,10 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B661" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D661" s="3">
         <v>1E-4</v>
@@ -13765,10 +13765,10 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B662" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D662" s="3">
         <v>1E-4</v>
@@ -13776,10 +13776,10 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B663" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D663" s="3">
         <v>1E-4</v>
@@ -13787,10 +13787,10 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B664" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D664" s="3">
         <v>1E-4</v>
@@ -13798,10 +13798,10 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B665" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D665" s="3">
         <v>1E-4</v>
@@ -13809,10 +13809,10 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B666" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D666" s="3">
         <v>1E-4</v>
@@ -13820,10 +13820,10 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B667" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D667" s="3">
         <v>1E-4</v>
@@ -13831,10 +13831,10 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B668" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D668" s="3">
         <v>1E-4</v>
@@ -13842,10 +13842,10 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B669" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D669" s="3">
         <v>1E-4</v>
@@ -13853,10 +13853,10 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B670" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D670" s="3">
         <v>1E-4</v>
@@ -13864,10 +13864,10 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B671" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D671" s="3">
         <v>1E-4</v>
@@ -13875,10 +13875,10 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B672" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D672" s="3">
         <v>1E-4</v>
@@ -13886,10 +13886,10 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B673" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D673" s="3">
         <v>1E-4</v>
@@ -13897,10 +13897,10 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B674" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D674" s="3">
         <v>1E-4</v>
@@ -13908,10 +13908,10 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B675" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D675" s="3">
         <v>1E-4</v>
@@ -13919,10 +13919,10 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B676" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D676" s="3">
         <v>1E-4</v>
@@ -13930,10 +13930,10 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B677" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D677" s="3">
         <v>1E-4</v>
@@ -13941,10 +13941,10 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B678" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D678" s="3">
         <v>1E-4</v>
@@ -13952,10 +13952,10 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B679" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D679" s="3">
         <v>1E-4</v>
@@ -13963,10 +13963,10 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B680" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D680" s="3">
         <v>1E-4</v>
@@ -13974,10 +13974,10 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B681" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D681" s="3">
         <v>1E-4</v>
@@ -13985,10 +13985,10 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B682" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D682" s="3">
         <v>1E-4</v>
@@ -13996,10 +13996,10 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B683" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D683" s="3">
         <v>1E-4</v>
@@ -14007,10 +14007,10 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B684" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D684" s="3">
         <v>1E-4</v>
@@ -14018,10 +14018,10 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B685" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D685" s="3">
         <v>1E-4</v>
@@ -14029,10 +14029,10 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B686" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D686" s="3">
         <v>1E-4</v>
@@ -14040,10 +14040,10 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B687" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D687" s="3">
         <v>1E-4</v>
@@ -14051,10 +14051,10 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B688" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D688" s="3">
         <v>1E-4</v>
@@ -14062,10 +14062,10 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B689" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D689" s="3">
         <v>1E-4</v>
@@ -14073,10 +14073,10 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B690" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="D690" s="3">
         <v>1E-4</v>
@@ -14084,10 +14084,10 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B691" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D691" s="3">
         <v>1E-4</v>
@@ -14095,10 +14095,10 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B692" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D692" s="3">
         <v>1E-4</v>
@@ -14106,10 +14106,10 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B693" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D693" s="3">
         <v>1E-4</v>
@@ -14117,10 +14117,10 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B694" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D694" s="3">
         <v>1E-4</v>
@@ -14128,10 +14128,10 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B695" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D695" s="3">
         <v>1E-4</v>
@@ -14139,10 +14139,10 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B696" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D696" s="3">
         <v>1E-4</v>
@@ -14150,10 +14150,10 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B697" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D697" s="3">
         <v>1E-4</v>
@@ -14161,10 +14161,10 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B698" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D698" s="3">
         <v>1E-4</v>
@@ -14172,10 +14172,10 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B699" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D699" s="3">
         <v>1E-4</v>
@@ -14183,10 +14183,10 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B700" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D700" s="3">
         <v>1E-4</v>
@@ -14194,10 +14194,10 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B701" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D701" s="3">
         <v>1E-4</v>
@@ -14205,10 +14205,10 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B702" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D702" s="3">
         <v>1E-4</v>
@@ -14216,10 +14216,10 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B703" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D703" s="3">
         <v>1E-4</v>
@@ -14227,10 +14227,10 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B704" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D704" s="3">
         <v>1E-4</v>
@@ -14238,10 +14238,10 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B705" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D705" s="3">
         <v>1E-4</v>
@@ -14249,10 +14249,10 @@
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B706" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D706" s="3">
         <v>1E-4</v>
@@ -14260,10 +14260,10 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B707" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D707" s="3">
         <v>1E-4</v>
@@ -14271,10 +14271,10 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B708" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D708" s="3">
         <v>1E-4</v>
@@ -14282,10 +14282,10 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B709" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D709" s="3">
         <v>1E-4</v>
@@ -14293,10 +14293,10 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B710" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D710" s="3">
         <v>1E-4</v>
@@ -14304,10 +14304,10 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B711" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D711" s="3">
         <v>1E-4</v>
@@ -14315,10 +14315,10 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B712" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D712" s="3">
         <v>1E-4</v>
@@ -14326,10 +14326,10 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B713" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D713" s="3">
         <v>1E-4</v>
@@ -14337,10 +14337,10 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B714" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D714" s="3">
         <v>1E-4</v>
@@ -14348,10 +14348,10 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B715" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D715" s="3">
         <v>1E-4</v>
@@ -14359,10 +14359,10 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B716" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D716" s="3">
         <v>1E-4</v>
@@ -14370,10 +14370,10 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B717" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D717" s="3">
         <v>1E-4</v>
@@ -14381,10 +14381,10 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B718" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D718" s="3">
         <v>1E-4</v>
@@ -14392,10 +14392,10 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B719" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D719" s="3">
         <v>1E-4</v>
@@ -14403,10 +14403,10 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B720" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D720" s="3">
         <v>1E-4</v>
@@ -14414,10 +14414,10 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B721" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D721" s="3">
         <v>1E-4</v>
@@ -14425,10 +14425,10 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B722" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D722" s="3">
         <v>1E-4</v>
@@ -14436,10 +14436,10 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B723" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D723" s="3">
         <v>1E-4</v>
@@ -14447,10 +14447,10 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B724" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D724" s="3">
         <v>1E-4</v>
@@ -14458,10 +14458,10 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B725" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D725" s="3">
         <v>1E-4</v>
@@ -14469,10 +14469,10 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B726" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D726" s="3">
         <v>1E-4</v>
@@ -14480,10 +14480,10 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B727" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D727" s="3">
         <v>1E-4</v>
@@ -14491,10 +14491,10 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B728" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D728" s="3">
         <v>1E-4</v>
@@ -14502,10 +14502,10 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B729" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D729" s="3">
         <v>1E-4</v>
@@ -14513,10 +14513,10 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B730" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D730" s="3">
         <v>1E-4</v>
@@ -14524,10 +14524,10 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B731" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D731" s="3">
         <v>1E-4</v>
@@ -14535,10 +14535,10 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B732" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D732" s="3">
         <v>1E-4</v>
@@ -14546,10 +14546,10 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B733" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D733" s="3">
         <v>1E-4</v>
@@ -14557,10 +14557,10 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B734" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D734" s="3">
         <v>1E-4</v>
@@ -14568,10 +14568,10 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B735" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D735" s="3">
         <v>1E-4</v>
@@ -14579,10 +14579,10 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B736" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D736" s="3">
         <v>1E-4</v>
@@ -14590,10 +14590,10 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B737" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D737" s="3">
         <v>1E-4</v>
@@ -14601,10 +14601,10 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B738" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D738" s="3">
         <v>1E-4</v>
@@ -14612,10 +14612,10 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B739" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D739" s="3">
         <v>1E-4</v>
@@ -14623,10 +14623,10 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B740" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D740" s="3">
         <v>1E-4</v>
@@ -14634,10 +14634,10 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B741" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D741" s="3">
         <v>1E-4</v>
@@ -14645,10 +14645,10 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B742" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D742" s="3">
         <v>1E-4</v>
@@ -14656,10 +14656,10 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B743" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D743" s="3">
         <v>1E-4</v>
@@ -14667,10 +14667,10 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B744" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="D744" s="3">
         <v>1E-4</v>
@@ -14678,10 +14678,10 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B745" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D745" s="3">
         <v>1E-4</v>
@@ -14689,10 +14689,10 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B746" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D746" s="3">
         <v>1E-4</v>
@@ -14700,10 +14700,10 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B747" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D747" s="3">
         <v>1E-4</v>
@@ -14711,10 +14711,10 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B748" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D748" s="3">
         <v>1E-4</v>
@@ -14722,10 +14722,10 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B749" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D749" s="3">
         <v>1E-4</v>
@@ -14733,10 +14733,10 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B750" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D750" s="3">
         <v>1E-4</v>
@@ -14744,10 +14744,10 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B751" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D751" s="3">
         <v>1E-4</v>
@@ -14755,10 +14755,10 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B752" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D752" s="3">
         <v>1E-4</v>
@@ -14766,10 +14766,10 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B753" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D753" s="3">
         <v>1E-4</v>
@@ -14777,10 +14777,10 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B754" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D754" s="3">
         <v>1E-4</v>
@@ -14788,10 +14788,10 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B755" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D755" s="3">
         <v>1E-4</v>
@@ -14799,10 +14799,10 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B756" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="D756" s="3">
         <v>1E-4</v>
@@ -14810,10 +14810,10 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B757" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D757" s="3">
         <v>1E-4</v>
@@ -14821,10 +14821,10 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B758" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D758" s="3">
         <v>1E-4</v>
@@ -14832,10 +14832,10 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B759" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="D759" s="3">
         <v>1E-4</v>
@@ -14843,10 +14843,10 @@
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B760" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D760" s="3">
         <v>1E-4</v>
@@ -14854,10 +14854,10 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B761" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D761" s="3">
         <v>1E-4</v>
@@ -14865,10 +14865,10 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B762" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D762" s="3">
         <v>1E-4</v>
@@ -14876,10 +14876,10 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B763" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D763" s="3">
         <v>1E-4</v>
@@ -14887,10 +14887,10 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B764" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D764" s="3">
         <v>1E-4</v>
@@ -14898,10 +14898,10 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B765" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D765" s="3">
         <v>1E-4</v>
@@ -14909,10 +14909,10 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B766" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D766" s="3">
         <v>1E-4</v>
@@ -14920,10 +14920,10 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B767" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D767" s="3">
         <v>1E-4</v>
@@ -14931,10 +14931,10 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B768" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D768" s="3">
         <v>1E-4</v>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B769" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="D769" s="3">
         <v>1E-4</v>
@@ -14953,10 +14953,10 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B770" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D770" s="3">
         <v>1E-4</v>
@@ -14964,10 +14964,10 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B771" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D771" s="3">
         <v>1E-4</v>
@@ -14975,10 +14975,10 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B772" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D772" s="3">
         <v>1E-4</v>
@@ -14986,10 +14986,10 @@
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B773" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D773" s="3">
         <v>1E-4</v>
@@ -14997,10 +14997,10 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B774" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D774" s="3">
         <v>1E-4</v>
@@ -15008,10 +15008,10 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B775" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="D775" s="3">
         <v>1E-4</v>
@@ -15019,10 +15019,10 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B776" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D776" s="3">
         <v>1E-4</v>
@@ -15030,10 +15030,10 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B777" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D777" s="3">
         <v>1E-4</v>
@@ -15041,10 +15041,10 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B778" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="D778" s="3">
         <v>1E-4</v>
@@ -15052,10 +15052,10 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B779" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="D779" s="3">
         <v>1E-4</v>
@@ -15063,10 +15063,10 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B780" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D780" s="3">
         <v>1E-4</v>
@@ -15074,10 +15074,10 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B781" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D781" s="3">
         <v>1E-4</v>
@@ -15085,10 +15085,10 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B782" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="D782" s="3">
         <v>1E-4</v>
@@ -15096,10 +15096,10 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B783" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D783" s="3">
         <v>1E-4</v>
@@ -15107,10 +15107,10 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B784" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="D784" s="3">
         <v>1E-4</v>
@@ -15118,10 +15118,10 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B785" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D785" s="3">
         <v>1E-4</v>
@@ -15129,10 +15129,10 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B786" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D786" s="3">
         <v>1E-4</v>
@@ -15140,10 +15140,10 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B787" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="D787" s="3">
         <v>1E-4</v>
@@ -15151,10 +15151,10 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B788" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D788" s="3">
         <v>1E-4</v>
@@ -15162,10 +15162,10 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B789" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="D789" s="3">
         <v>1E-4</v>
@@ -15173,10 +15173,10 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B790" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="D790" s="3">
         <v>1E-4</v>
@@ -15184,10 +15184,10 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B791" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="D791" s="3">
         <v>1E-4</v>
@@ -15195,10 +15195,10 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B792" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D792" s="3">
         <v>1E-4</v>
@@ -15206,10 +15206,10 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B793" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="D793" s="3">
         <v>1E-4</v>
@@ -15217,10 +15217,10 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B794" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D794" s="3">
         <v>1E-4</v>
@@ -15228,10 +15228,10 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B795" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="D795" s="3">
         <v>1E-4</v>
@@ -15239,10 +15239,10 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B796" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D796" s="3">
         <v>1E-4</v>
@@ -15250,10 +15250,10 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B797" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D797" s="3">
         <v>1E-4</v>
@@ -15261,10 +15261,10 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B798" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D798" s="3">
         <v>1E-4</v>
@@ -15272,10 +15272,10 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B799" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D799" s="3">
         <v>1E-4</v>
@@ -15283,10 +15283,10 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B800" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D800" s="3">
         <v>1E-4</v>
@@ -15294,10 +15294,10 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B801" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="D801" s="3">
         <v>1E-4</v>
@@ -15305,10 +15305,10 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B802" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D802" s="3">
         <v>1E-4</v>
@@ -15316,9 +15316,6 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B803" t="s">
         <v>1597</v>
       </c>
       <c r="D803" s="3">
@@ -15329,16 +15326,19 @@
       <c r="A804" t="s">
         <v>1598</v>
       </c>
+      <c r="B804" t="s">
+        <v>1599</v>
+      </c>
       <c r="D804" s="3">
         <v>1E-4</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B805" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D805" s="3">
         <v>1E-4</v>
@@ -15346,10 +15346,10 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B806" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="D806" s="3">
         <v>1E-4</v>
@@ -15357,10 +15357,10 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B807" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="D807" s="3">
         <v>1E-4</v>
@@ -15368,10 +15368,10 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B808" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D808" s="3">
         <v>1E-4</v>
@@ -15379,10 +15379,10 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B809" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D809" s="3">
         <v>1E-4</v>
@@ -15390,10 +15390,10 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B810" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="D810" s="3">
         <v>1E-4</v>
@@ -15401,10 +15401,10 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B811" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="D811" s="3">
         <v>1E-4</v>
@@ -15412,10 +15412,10 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B812" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D812" s="3">
         <v>1E-4</v>
@@ -15423,10 +15423,10 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B813" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D813" s="3">
         <v>1E-4</v>
@@ -15434,10 +15434,10 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B814" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D814" s="3">
         <v>1E-4</v>
@@ -15445,10 +15445,10 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B815" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="D815" s="3">
         <v>1E-4</v>
@@ -15456,10 +15456,10 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B816" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="D816" s="3">
         <v>1E-4</v>
@@ -15467,10 +15467,10 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B817" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D817" s="3">
         <v>1E-4</v>
@@ -15478,10 +15478,10 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B818" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="D818" s="3">
         <v>1E-4</v>
@@ -15489,10 +15489,10 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B819" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D819" s="3">
         <v>1E-4</v>
@@ -15500,10 +15500,10 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B820" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="D820" s="3">
         <v>1E-4</v>
@@ -15511,10 +15511,10 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B821" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="D821" s="3">
         <v>1E-4</v>
@@ -15522,10 +15522,10 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B822" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="D822" s="3">
         <v>1E-4</v>
@@ -15533,10 +15533,10 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B823" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="D823" s="3">
         <v>1E-4</v>
@@ -15544,10 +15544,10 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B824" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="D824" s="3">
         <v>1E-4</v>
@@ -15555,10 +15555,10 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B825" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="D825" s="3">
         <v>1E-4</v>
@@ -15566,10 +15566,10 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B826" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="D826" s="3">
         <v>1E-4</v>
@@ -15577,10 +15577,10 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B827" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="D827" s="3">
         <v>1E-4</v>
@@ -15588,10 +15588,10 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B828" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="D828" s="3">
         <v>1E-4</v>
@@ -15599,10 +15599,10 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B829" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D829" s="3">
         <v>1E-4</v>
@@ -15610,10 +15610,10 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B830" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="D830" s="3">
         <v>1E-4</v>
@@ -15621,10 +15621,10 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B831" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="D831" s="3">
         <v>1E-4</v>
@@ -15632,10 +15632,10 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B832" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="D832" s="3">
         <v>1E-4</v>
@@ -15643,10 +15643,10 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B833" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D833" s="3">
         <v>1E-4</v>
@@ -15654,9 +15654,6 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B834" t="s">
         <v>1658</v>
       </c>
       <c r="D834" s="3">
@@ -15667,16 +15664,19 @@
       <c r="A835" t="s">
         <v>1659</v>
       </c>
+      <c r="B835" t="s">
+        <v>1660</v>
+      </c>
       <c r="D835" s="3">
         <v>1E-4</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B836" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="D836" s="3">
         <v>1E-4</v>
@@ -15684,10 +15684,10 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B837" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="D837" s="3">
         <v>1E-4</v>
@@ -15695,10 +15695,10 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B838" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="D838" s="3">
         <v>1E-4</v>
@@ -15706,10 +15706,10 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B839" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="D839" s="3">
         <v>1E-4</v>
@@ -15717,10 +15717,10 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B840" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="D840" s="3">
         <v>1E-4</v>
@@ -15728,10 +15728,10 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B841" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="D841" s="3">
         <v>1E-4</v>
@@ -15739,10 +15739,10 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B842" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="D842" s="3">
         <v>1E-4</v>
@@ -15750,10 +15750,10 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B843" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="D843" s="3">
         <v>1E-4</v>
@@ -15761,10 +15761,10 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B844" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="D844" s="3">
         <v>1E-4</v>
@@ -15772,10 +15772,10 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B845" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D845" s="3">
         <v>1E-4</v>
@@ -15783,10 +15783,10 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B846" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="D846" s="3">
         <v>1E-4</v>
@@ -15794,10 +15794,10 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B847" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="D847" s="3">
         <v>1E-4</v>
@@ -15805,9 +15805,6 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B848" t="s">
         <v>1685</v>
       </c>
       <c r="D848" s="3">
@@ -15818,16 +15815,19 @@
       <c r="A849" t="s">
         <v>1686</v>
       </c>
+      <c r="B849" t="s">
+        <v>1687</v>
+      </c>
       <c r="D849" s="3">
         <v>1E-4</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B850" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="D850" s="3">
         <v>1E-4</v>
@@ -15835,10 +15835,10 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B851" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="D851" s="3">
         <v>1E-4</v>
@@ -15846,10 +15846,10 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B852" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="D852" s="3">
         <v>1E-4</v>
@@ -15857,10 +15857,10 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B853" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="D853" s="3">
         <v>1E-4</v>
@@ -15868,10 +15868,10 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B854" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="D854" s="3">
         <v>1E-4</v>
@@ -15879,10 +15879,10 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B855" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="D855" s="3">
         <v>1E-4</v>
@@ -15890,10 +15890,10 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B856" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="D856" s="3">
         <v>1E-4</v>
@@ -15901,10 +15901,10 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B857" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="D857" s="3">
         <v>1E-4</v>
@@ -15912,10 +15912,10 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B858" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="D858" s="3">
         <v>1E-4</v>
@@ -15923,10 +15923,10 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B859" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="D859" s="3">
         <v>1E-4</v>
@@ -15934,10 +15934,10 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B860" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="D860" s="3">
         <v>1E-4</v>
@@ -15945,10 +15945,10 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B861" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D861" s="3">
         <v>1E-4</v>
@@ -15956,10 +15956,10 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B862" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="D862" s="3">
         <v>1E-4</v>
@@ -15967,10 +15967,10 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B863" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="D863" s="3">
         <v>1E-4</v>
@@ -15978,10 +15978,10 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B864" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="D864" s="3">
         <v>1E-4</v>
@@ -15989,10 +15989,10 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B865" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="D865" s="3">
         <v>1E-4</v>
@@ -16000,10 +16000,10 @@
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B866" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D866" s="3">
         <v>1E-4</v>
@@ -16011,10 +16011,10 @@
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B867" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D867" s="3">
         <v>1E-4</v>
@@ -16022,10 +16022,10 @@
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B868" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D868" s="3">
         <v>1E-4</v>
@@ -16033,10 +16033,10 @@
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B869" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D869" s="3">
         <v>1E-4</v>
@@ -16044,10 +16044,10 @@
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B870" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D870" s="3">
         <v>1E-4</v>
@@ -16055,10 +16055,10 @@
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B871" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="D871" s="3">
         <v>1E-4</v>
@@ -16066,10 +16066,10 @@
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B872" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D872" s="3">
         <v>1E-4</v>
@@ -16077,10 +16077,10 @@
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B873" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="D873" s="3">
         <v>1E-4</v>
@@ -16088,10 +16088,10 @@
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B874" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="D874" s="3">
         <v>1E-4</v>
@@ -16099,10 +16099,10 @@
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B875" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D875" s="3">
         <v>1E-4</v>
@@ -16110,10 +16110,10 @@
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B876" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="D876" s="3">
         <v>1E-4</v>
@@ -16121,10 +16121,10 @@
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B877" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D877" s="3">
         <v>1E-4</v>
@@ -16132,10 +16132,10 @@
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B878" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D878" s="3">
         <v>1E-4</v>
@@ -16143,10 +16143,10 @@
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B879" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="D879" s="3">
         <v>1E-4</v>
@@ -16154,10 +16154,10 @@
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B880" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="D880" s="3">
         <v>1E-4</v>
@@ -16165,10 +16165,10 @@
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B881" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D881" s="3">
         <v>1E-4</v>
@@ -16176,10 +16176,10 @@
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B882" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="D882" s="3">
         <v>1E-4</v>
@@ -16187,10 +16187,10 @@
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B883" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D883" s="3">
         <v>1E-4</v>
@@ -16198,10 +16198,10 @@
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B884" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="D884" s="3">
         <v>1E-4</v>
@@ -16209,10 +16209,10 @@
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B885" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="D885" s="3">
         <v>1E-4</v>
@@ -16220,10 +16220,10 @@
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B886" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="D886" s="3">
         <v>1E-4</v>
@@ -16231,10 +16231,10 @@
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B887" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="D887" s="3">
         <v>1E-4</v>
@@ -16242,10 +16242,10 @@
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B888" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="D888" s="3">
         <v>1E-4</v>
@@ -16253,10 +16253,10 @@
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B889" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D889" s="3">
         <v>1E-4</v>
@@ -16264,10 +16264,10 @@
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B890" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D890" s="3">
         <v>1E-4</v>
@@ -16275,10 +16275,10 @@
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B891" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="D891" s="3">
         <v>1E-4</v>
@@ -16286,10 +16286,10 @@
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B892" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D892" s="3">
         <v>1E-4</v>
@@ -16297,10 +16297,10 @@
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B893" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="D893" s="3">
         <v>1E-4</v>
@@ -16308,10 +16308,10 @@
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B894" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="D894" s="3">
         <v>1E-4</v>
@@ -16319,10 +16319,10 @@
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="B895" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="D895" s="3">
         <v>1E-4</v>
@@ -16330,10 +16330,10 @@
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B896" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D896" s="3">
         <v>1E-4</v>
@@ -16341,10 +16341,10 @@
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B897" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D897" s="3">
         <v>1E-4</v>
@@ -16352,10 +16352,10 @@
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B898" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="D898" s="3">
         <v>1E-4</v>
@@ -16363,10 +16363,10 @@
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B899" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D899" s="3">
         <v>1E-4</v>
@@ -16374,10 +16374,10 @@
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B900" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D900" s="3">
         <v>1E-4</v>
@@ -16385,10 +16385,10 @@
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B901" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D901" s="3">
         <v>1E-4</v>
@@ -16396,10 +16396,10 @@
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B902" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="D902" s="3">
         <v>1E-4</v>
@@ -16407,10 +16407,10 @@
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B903" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="D903" s="3">
         <v>1E-4</v>
@@ -16418,10 +16418,10 @@
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B904" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="D904" s="3">
         <v>1E-4</v>
@@ -16429,10 +16429,10 @@
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B905" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D905" s="3">
         <v>1E-4</v>
@@ -16440,10 +16440,10 @@
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B906" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="D906" s="3">
         <v>1E-4</v>
@@ -16451,10 +16451,10 @@
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B907" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="D907" s="3">
         <v>1E-4</v>
@@ -16462,10 +16462,10 @@
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B908" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D908" s="3">
         <v>1E-4</v>
@@ -16473,10 +16473,10 @@
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B909" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="D909" s="3">
         <v>1E-4</v>
@@ -16484,10 +16484,10 @@
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B910" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D910" s="3">
         <v>1E-4</v>
@@ -16495,10 +16495,10 @@
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B911" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="D911" s="3">
         <v>1E-4</v>
@@ -16506,10 +16506,10 @@
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B912" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="D912" s="3">
         <v>1E-4</v>
@@ -16517,10 +16517,10 @@
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B913" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D913" s="3">
         <v>1E-4</v>
@@ -16528,10 +16528,10 @@
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B914" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="D914" s="3">
         <v>1E-4</v>
@@ -16539,10 +16539,10 @@
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B915" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D915" s="3">
         <v>1E-4</v>
@@ -16550,10 +16550,10 @@
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B916" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D916" s="3">
         <v>1E-4</v>
@@ -16561,10 +16561,10 @@
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="B917" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="D917" s="3">
         <v>1E-4</v>
@@ -16572,10 +16572,10 @@
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B918" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="D918" s="3">
         <v>1E-4</v>
@@ -16583,10 +16583,10 @@
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B919" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="D919" s="3">
         <v>1E-4</v>
@@ -16594,9 +16594,6 @@
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>1827</v>
-      </c>
-      <c r="B920" t="s">
         <v>1828</v>
       </c>
       <c r="D920" s="3">
@@ -16607,16 +16604,19 @@
       <c r="A921" t="s">
         <v>1829</v>
       </c>
+      <c r="B921" t="s">
+        <v>1830</v>
+      </c>
       <c r="D921" s="3">
         <v>1E-4</v>
       </c>
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B922" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="D922" s="3">
         <v>1E-4</v>
@@ -16624,10 +16624,10 @@
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B923" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D923" s="3">
         <v>1E-4</v>
@@ -16635,10 +16635,10 @@
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B924" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="D924" s="3">
         <v>1E-4</v>
@@ -16646,10 +16646,10 @@
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B925" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D925" s="3">
         <v>1E-4</v>
@@ -16657,10 +16657,10 @@
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B926" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D926" s="3">
         <v>1E-4</v>
@@ -16668,10 +16668,10 @@
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B927" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D927" s="3">
         <v>1E-4</v>
@@ -16679,10 +16679,10 @@
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B928" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="D928" s="3">
         <v>1E-4</v>
@@ -16690,10 +16690,10 @@
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B929" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D929" s="3">
         <v>1E-4</v>
@@ -16701,10 +16701,10 @@
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B930" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D930" s="3">
         <v>1E-4</v>
@@ -16712,10 +16712,10 @@
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B931" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D931" s="3">
         <v>1E-4</v>
@@ -16723,10 +16723,10 @@
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B932" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="D932" s="3">
         <v>1E-4</v>
@@ -16734,10 +16734,10 @@
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B933" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D933" s="3">
         <v>1E-4</v>
@@ -16745,10 +16745,10 @@
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B934" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D934" s="3">
         <v>1E-4</v>
@@ -16756,10 +16756,10 @@
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B935" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="D935" s="3">
         <v>1E-4</v>
@@ -16767,21 +16767,21 @@
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B936" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="D936" s="3">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B937" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="D937" s="3">
         <v>0</v>
@@ -16789,10 +16789,10 @@
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B938" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="D938" s="3">
         <v>0</v>
@@ -16800,10 +16800,10 @@
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B939" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D939" s="3">
         <v>0</v>
@@ -16811,10 +16811,10 @@
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B940" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="D940" s="3">
         <v>0</v>
@@ -16822,10 +16822,10 @@
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B941" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="D941" s="3">
         <v>0</v>
@@ -16833,10 +16833,10 @@
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B942" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="D942" s="3">
         <v>0</v>
@@ -16844,10 +16844,10 @@
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B943" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="D943" s="3">
         <v>0</v>
@@ -16855,10 +16855,10 @@
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B944" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="D944" s="3">
         <v>0</v>
@@ -16866,10 +16866,10 @@
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B945" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="D945" s="3">
         <v>0</v>
@@ -16877,10 +16877,10 @@
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B946" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="D946" s="3">
         <v>0</v>
@@ -16888,10 +16888,10 @@
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B947" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="D947" s="3">
         <v>0</v>
@@ -16899,10 +16899,10 @@
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B948" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="D948" s="3">
         <v>0</v>
@@ -16910,10 +16910,10 @@
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B949" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="D949" s="3">
         <v>0</v>
@@ -16921,10 +16921,10 @@
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B950" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="D950" s="3">
         <v>0</v>
@@ -16932,10 +16932,10 @@
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B951" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="D951" s="3">
         <v>0</v>
@@ -16943,10 +16943,10 @@
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B952" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="D952" s="3">
         <v>0</v>
@@ -16954,10 +16954,10 @@
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B953" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D953" s="3">
         <v>0</v>
@@ -16965,10 +16965,10 @@
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="B954" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D954" s="3">
         <v>0</v>
@@ -16976,10 +16976,10 @@
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="B955" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="D955" s="3">
         <v>0</v>
@@ -16987,10 +16987,10 @@
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B956" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="D956" s="3">
         <v>0</v>
@@ -16998,10 +16998,10 @@
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B957" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="D957" s="3">
         <v>0</v>
@@ -17009,10 +17009,10 @@
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B958" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="D958" s="3">
         <v>0</v>
@@ -17020,10 +17020,10 @@
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B959" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D959" s="3">
         <v>0</v>
@@ -17031,10 +17031,10 @@
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B960" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="D960" s="3">
         <v>0</v>
@@ -17042,10 +17042,10 @@
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B961" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="D961" s="3">
         <v>0</v>
@@ -17053,10 +17053,10 @@
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B962" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="D962" s="3">
         <v>0</v>
@@ -17064,10 +17064,10 @@
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B963" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="D963" s="3">
         <v>0</v>
@@ -17075,10 +17075,10 @@
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B964" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="D964" s="3">
         <v>0</v>
@@ -17086,10 +17086,10 @@
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B965" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="D965" s="3">
         <v>0</v>
@@ -17097,10 +17097,10 @@
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B966" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="D966" s="3">
         <v>0</v>
@@ -17108,10 +17108,10 @@
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B967" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="D967" s="3">
         <v>0</v>
@@ -17119,10 +17119,10 @@
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B968" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="D968" s="3">
         <v>0</v>
@@ -17130,10 +17130,10 @@
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B969" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="D969" s="3">
         <v>0</v>
@@ -17141,10 +17141,10 @@
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B970" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="D970" s="3">
         <v>0</v>
@@ -17152,10 +17152,10 @@
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B971" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="D971" s="3">
         <v>0</v>
@@ -17163,10 +17163,10 @@
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B972" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="D972" s="3">
         <v>0</v>
@@ -17174,10 +17174,10 @@
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B973" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="D973" s="3">
         <v>0</v>
@@ -17185,10 +17185,10 @@
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B974" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="D974" s="3">
         <v>0</v>
@@ -17196,10 +17196,10 @@
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B975" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D975" s="3">
         <v>0</v>
@@ -17207,10 +17207,10 @@
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="B976" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="D976" s="3">
         <v>0</v>
@@ -17218,10 +17218,10 @@
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B977" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="D977" s="3">
         <v>0</v>
@@ -17229,10 +17229,10 @@
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B978" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="D978" s="3">
         <v>0</v>
@@ -17240,10 +17240,10 @@
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B979" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="D979" s="3">
         <v>0</v>
@@ -17251,10 +17251,10 @@
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B980" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="D980" s="3">
         <v>0</v>
@@ -17262,10 +17262,10 @@
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B981" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="D981" s="3">
         <v>0</v>
@@ -17273,10 +17273,10 @@
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B982" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="D982" s="3">
         <v>0</v>
@@ -17284,10 +17284,10 @@
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B983" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="D983" s="3">
         <v>0</v>
@@ -17295,10 +17295,10 @@
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B984" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="D984" s="3">
         <v>0</v>
@@ -17306,10 +17306,10 @@
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B985" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="D985" s="3">
         <v>0</v>
@@ -17317,10 +17317,10 @@
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B986" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="D986" s="3">
         <v>0</v>
@@ -17328,10 +17328,10 @@
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B987" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="D987" s="3">
         <v>0</v>
@@ -17339,10 +17339,10 @@
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B988" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="D988" s="3">
         <v>0</v>
@@ -17350,10 +17350,10 @@
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B989" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="D989" s="3">
         <v>0</v>
@@ -17361,10 +17361,10 @@
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B990" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="D990" s="3">
         <v>0</v>
@@ -17372,10 +17372,10 @@
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B991" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="D991" s="3">
         <v>0</v>
@@ -17383,10 +17383,10 @@
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B992" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="D992" s="3">
         <v>0</v>
@@ -17394,10 +17394,10 @@
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B993" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="D993" s="3">
         <v>0</v>
@@ -17405,10 +17405,10 @@
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B994" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="D994" s="3">
         <v>0</v>
@@ -17416,10 +17416,10 @@
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B995" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="D995" s="3">
         <v>0</v>
@@ -17427,10 +17427,10 @@
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B996" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D996" s="3">
         <v>0</v>
@@ -17438,10 +17438,10 @@
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B997" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="D997" s="3">
         <v>0</v>
@@ -17449,10 +17449,10 @@
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B998" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="D998" s="3">
         <v>0</v>
@@ -17460,10 +17460,10 @@
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B999" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D999" s="3">
         <v>0</v>
@@ -17471,10 +17471,10 @@
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1000" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D1000" s="3">
         <v>0</v>
@@ -17482,10 +17482,10 @@
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1001" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="D1001" s="3">
         <v>0</v>
@@ -17493,10 +17493,10 @@
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1002" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="D1002" s="3">
         <v>0</v>
@@ -17504,10 +17504,10 @@
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1003" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="D1003" s="3">
         <v>0</v>
@@ -17515,10 +17515,10 @@
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1004" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="D1004" s="3">
         <v>0</v>
@@ -17526,10 +17526,10 @@
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B1005" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D1005" s="3">
         <v>0</v>
@@ -17537,10 +17537,10 @@
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1006" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D1006" s="3">
         <v>0</v>
@@ -17548,10 +17548,10 @@
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B1007" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D1007" s="3">
         <v>0</v>
@@ -17559,10 +17559,10 @@
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B1008" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D1008" s="3">
         <v>0</v>
@@ -17570,10 +17570,10 @@
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1009" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D1009" s="3">
         <v>0</v>
@@ -17581,10 +17581,10 @@
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B1010" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D1010" s="3">
         <v>0</v>
@@ -17592,10 +17592,10 @@
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B1011" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D1011" s="3">
         <v>0</v>
@@ -17603,10 +17603,10 @@
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B1012" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D1012" s="3">
         <v>0</v>
@@ -17614,10 +17614,10 @@
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B1013" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D1013" s="3">
         <v>0</v>
@@ -17625,10 +17625,10 @@
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B1014" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D1014" s="3">
         <v>0</v>
@@ -17636,10 +17636,10 @@
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B1015" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D1015" s="3">
         <v>0</v>
@@ -17647,10 +17647,10 @@
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B1016" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D1016" s="3">
         <v>0</v>
@@ -17658,10 +17658,10 @@
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B1017" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D1017" s="3">
         <v>0</v>
@@ -17669,10 +17669,10 @@
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B1018" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D1018" s="3">
         <v>0</v>
@@ -17680,10 +17680,10 @@
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B1019" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="D1019" s="3">
         <v>0</v>
@@ -17691,23 +17691,12 @@
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B1020" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="D1020" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1021" t="s">
-        <v>2028</v>
-      </c>
-      <c r="B1021" t="s">
-        <v>2029</v>
-      </c>
-      <c r="D1021" s="3">
         <v>0</v>
       </c>
     </row>
